--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T15:29:20+00:00</t>
+    <t>2022-01-28T15:30:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T15:30:41+00:00</t>
+    <t>2022-04-25T09:14:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1032,7 +1032,7 @@
     <t>MedicationDispense.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient)
+    <t xml:space="preserve">Reference(http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BePatient)
 </t>
   </si>
   <si>
@@ -1349,7 +1349,7 @@
 performer-organization-nidhi:When an organization is referred to by use of an identifier, the naming system SHOULD be NIHDI number {actor.identifier.exists() implies actor.identifier.system='https://www.ehealth.fgov.be/standards/fhir/NamingSystem/nihdi-organization'}</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization)
+    <t xml:space="preserve">Reference(http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BeOrganization)
 </t>
   </si>
   <si>
@@ -1357,7 +1357,7 @@
 performer-practitioner-nidhi:When a practitioner is referred to by use of an identifier, the system naming SHOULD be NIHDI number {actor.identifier.exists() implies actor.identifier.system='https://www.ehealth.fgov.be/standards/fhir/NamingSystem/nihdi-practitioner'}</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner)
+    <t xml:space="preserve">Reference(http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/BePractitioner)
 </t>
   </si>
   <si>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T09:14:05+00:00</t>
+    <t>2022-05-27T14:43:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T14:43:08+00:00</t>
+    <t>2022-05-27T16:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-medicationdispense.xlsx
+++ b/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T16:28:46+00:00</t>
+    <t>2022-05-29T07:59:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
